--- a/ConsoleApp1/idkDoc.xlsx
+++ b/ConsoleApp1/idkDoc.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nolan\RiderProjects\idk\ConsoleApp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70D6C4F-A4FB-48F1-85ED-FF3FF35CD50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC311D6-EA88-4790-96D4-41BE63DE8187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AA0FEC36-1724-49CE-BF88-22AB09941A05}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AA0FEC36-1724-49CE-BF88-22AB09941A05}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Union" sheetId="2" r:id="rId2"/>
     <sheet name="Intersection" sheetId="3" r:id="rId3"/>
+    <sheet name="AddSet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
   <si>
     <t>Natural0</t>
   </si>
@@ -140,6 +141,30 @@
   </si>
   <si>
     <t>BNS: Q --&gt; null, N0 --&gt; Range, N --&gt; Range, Z --&gt; Range</t>
+  </si>
+  <si>
+    <t>Max(A.level, B.level)</t>
+  </si>
+  <si>
+    <t>{a+b,a in A et b in B}</t>
+  </si>
+  <si>
+    <t>A.len&gt;1 [A.start;INF[</t>
+  </si>
+  <si>
+    <t>A.len&gt;1 [A.start+1;INF[</t>
+  </si>
+  <si>
+    <t>A.len&gt;1 ]-INF;INF[</t>
+  </si>
+  <si>
+    <t>BNS.level&gt;Real.lvl BNS</t>
+  </si>
+  <si>
+    <t>B+A</t>
+  </si>
+  <si>
+    <t>A.len&gt;1 [B.inf+a;INF[</t>
   </si>
 </sst>
 </file>
@@ -163,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -260,35 +285,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -300,17 +402,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637AEE11-AF45-4E3D-8876-A11783327C89}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,61 +839,61 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="13" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -772,194 +901,186 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="11"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="11"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="11"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="11"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="5" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="6" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:I20"/>
     <mergeCell ref="E5:K11"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="D4:M4"/>
@@ -969,6 +1090,14 @@
     <mergeCell ref="L5:L11"/>
     <mergeCell ref="M5:M12"/>
     <mergeCell ref="E13:L13"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -978,7 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54595B80-E2AD-46CA-9695-9F0C2A6BF823}">
   <dimension ref="C3:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -1026,61 +1155,61 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="13" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1088,200 +1217,209 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="11"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="11"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="11"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="11"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="11"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="11"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="5" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="6" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D5:D14"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="F6:L12"/>
+    <mergeCell ref="M6:M12"/>
+    <mergeCell ref="N6:N13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:M14"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="G19:J19"/>
@@ -1292,15 +1430,278 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="D5:D14"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="E6:E14"/>
-    <mergeCell ref="F6:L12"/>
-    <mergeCell ref="M6:M12"/>
-    <mergeCell ref="N6:N13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:M14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FAEC6-BE89-4476-A45C-601814319C08}">
+  <dimension ref="C4:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D6:D15"/>
+    <mergeCell ref="F7:L13"/>
+    <mergeCell ref="M7:M13"/>
+    <mergeCell ref="E6:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
